--- a/media/toa-do.xlsx
+++ b/media/toa-do.xlsx
@@ -195,9 +195,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,7 +555,7 @@
         <v>3490</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -567,7 +567,7 @@
         <v>3580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +594,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,7 +742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1297,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,7 +1348,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1399,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,7 +1450,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,7 +1528,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,7 +1606,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/media/toa-do.xlsx
+++ b/media/toa-do.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Map 01" sheetId="1" state="visible" r:id="rId2"/>
@@ -189,15 +189,14 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,15 +585,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,15 +607,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>70</v>
+      <c r="B2" s="5" t="n">
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1555</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>777</v>
+        <v>253</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1312</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>860</v>
+        <v>429</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1280</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,10 +645,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1633</v>
+        <v>605</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1280</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,10 +656,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2264</v>
+        <v>693</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>806</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2437</v>
+        <v>781</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>766</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2534</v>
+        <v>860</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>782</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2700</v>
+        <v>1037</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>854</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,10 +700,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3400</v>
+        <v>1129</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1154</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,12 +711,222 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3480</v>
+        <v>1217</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1180</v>
-      </c>
-    </row>
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1389</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1649</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2093</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2169</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2261</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2437</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2521</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2621</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2789</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2959</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3128</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3302</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3397</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>3485</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -734,15 +943,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,521 +965,301 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>20</v>
+      <c r="B2" s="5" t="n">
+        <v>143</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>134</v>
+      <c r="B3" s="5" t="n">
+        <v>287</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1029</v>
+        <v>887</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1181</v>
+        <v>1021</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1329</v>
+        <v>1161</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1438</v>
+        <v>1306</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1629</v>
+        <v>1450</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1790</v>
+        <v>1600</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1985</v>
+        <v>1757</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2098</v>
+        <v>1901</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1123</v>
+        <v>2047</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1220</v>
+        <v>2199</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1316</v>
+        <v>2343</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1417</v>
+        <v>2487</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1499</v>
+        <v>2629</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1574</v>
+        <v>2771</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1635</v>
+        <v>2927</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1697</v>
+        <v>3077</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1769</v>
+        <v>3223</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1834</v>
+        <v>3367</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1910</v>
+        <v>3515</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1971</v>
+        <v>3659</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2029</v>
+        <v>3811</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2089</v>
+        <v>3961</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>2147</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>2226</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>2307</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>2384</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>2452</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>2514</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>2588</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>2657</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>2711</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>2763</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>2833</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>2895</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>2959</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>3030</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>3095</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>3141</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>3179</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>3233</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>3296</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>3351</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>79</v>
+        <v>1847</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1286,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,7 +1337,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,12 +1348,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1388,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,12 +1407,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1445,12 +1434,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3000</v>
+        <v>3046</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>650</v>
@@ -1522,13 +1511,13 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2264</v>
+        <v>2300</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>900</v>
@@ -1601,12 +1590,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,15 +1615,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1005</v>
+        <v>1313</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1060</v>
+        <v>800</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>90</v>
@@ -1643,15 +1632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2765</v>
+        <v>2771</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>570</v>
+        <v>850</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90</v>
